--- a/output/frequent_repositories.xlsx
+++ b/output/frequent_repositories.xlsx
@@ -1,87 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24812"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_EBB631373FC1686ED84838F915DB0B619259C0E0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="repositories" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="repositories" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t xml:space="preserve">repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repository_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">geo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-specific repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">figshare</t>
-  </si>
-  <si>
-    <t xml:space="preserve">general-purpose repository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">osf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ncbi nuccore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">array-express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">github</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wwpdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zenodo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mendeley data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bioproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">european genome-phenome archive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proteomexchange</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>repository_type</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>field-specific repository</t>
+  </si>
+  <si>
+    <t>figshare</t>
+  </si>
+  <si>
+    <t>general-purpose repository</t>
+  </si>
+  <si>
+    <t>osf</t>
+  </si>
+  <si>
+    <t>ena</t>
+  </si>
+  <si>
+    <t>pride</t>
+  </si>
+  <si>
+    <t>ncbi nuccore</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>array-express</t>
+  </si>
+  <si>
+    <t>github</t>
+  </si>
+  <si>
+    <t>wwpdb</t>
+  </si>
+  <si>
+    <t>zenodo</t>
+  </si>
+  <si>
+    <t>dcc</t>
+  </si>
+  <si>
+    <t>mendeley data</t>
+  </si>
+  <si>
+    <t>bioproject</t>
+  </si>
+  <si>
+    <t>european genome-phenome archive</t>
+  </si>
+  <si>
+    <t>proteomexchange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -115,9 +128,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -399,14 +421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,184 +439,184 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>94</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>35</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>21</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>18</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>16</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>7</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>